--- a/data/address errors.xlsx
+++ b/data/address errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinabeshai/School/Junior/Fall/COS333i/fair-share-housing-5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3F3F81-5185-C643-970D-1AF52DAE60FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA83A23-EF1B-DA4A-823E-4F4DC6FCCED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27480" windowHeight="16140" xr2:uid="{129652EC-9F8C-3B42-82FF-3C73F84312CD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="520">
   <si>
     <t>Municode</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Lot</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
   <si>
     <t>Status</t>
@@ -2020,10 +2017,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD3CD4-8082-984A-BCC5-8BEEC687BD02}">
   <dimension ref="A1:AY159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K10"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,7 +2028,8 @@
     <col min="1" max="4" width="10.83203125" style="3"/>
     <col min="5" max="5" width="20.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="3" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="3"/>
+    <col min="7" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="93" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -2067,128 +2065,126 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="AX1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="AV1" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="AW1" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
@@ -2196,44 +2192,47 @@
         <v>1426</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>61</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="K2" s="3">
+        <v>222</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R2" s="3">
         <v>30</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U2" s="3">
         <v>14</v>
@@ -2339,22 +2338,22 @@
         <v>1426</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3">
         <v>61.02</v>
@@ -2363,7 +2362,7 @@
         <v>23.08</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2474,31 +2473,31 @@
         <v>1426</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="3">
         <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2609,25 +2608,25 @@
         <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="3">
         <v>1316</v>
@@ -2636,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4">
@@ -2646,7 +2645,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="S5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U5" s="3">
         <v>35</v>
@@ -2710,25 +2709,25 @@
         <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="3">
         <v>1104</v>
@@ -2737,7 +2736,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2796,25 +2795,25 @@
         <v>207</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="3">
         <v>1312</v>
@@ -2823,7 +2822,7 @@
         <v>19</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2880,22 +2879,22 @@
         <v>242</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="3">
         <v>1801</v>
@@ -2904,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8" s="4">
         <v>43718</v>
@@ -2923,7 +2922,7 @@
         <v>30</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U8" s="3">
         <v>2</v>
@@ -3029,34 +3028,34 @@
         <v>244</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="3">
         <v>220</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -3066,7 +3065,7 @@
         <v>41684</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U9" s="3">
         <v>8</v>
@@ -3121,34 +3120,34 @@
         <v>250</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
@@ -3158,7 +3157,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="S10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U10" s="3">
         <v>152</v>
@@ -3195,37 +3194,37 @@
         <v>250</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -3233,7 +3232,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="S11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U11" s="3">
         <v>56</v>
@@ -3309,22 +3308,22 @@
         <v>253</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="3">
         <v>1201</v>
@@ -3333,10 +3332,10 @@
         <v>6.02</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
@@ -3349,7 +3348,7 @@
         <v>30</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U12" s="3">
         <v>24</v>
@@ -3404,34 +3403,34 @@
         <v>253</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="3">
         <v>701</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -3442,7 +3441,7 @@
         <v>30</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U13" s="3">
         <v>24</v>
@@ -3524,22 +3523,22 @@
         <v>253</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="3">
         <v>1301</v>
@@ -3548,10 +3547,10 @@
         <v>38.01</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M14" s="4">
         <v>43965</v>
@@ -3563,10 +3562,10 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="U14" s="3">
         <v>5</v>
@@ -3624,34 +3623,34 @@
         <v>258</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="3">
         <v>1402</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -3662,7 +3661,7 @@
         <v>30</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U15" s="3">
         <v>8</v>
@@ -3711,34 +3710,34 @@
         <v>258</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -3749,7 +3748,7 @@
         <v>30</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U16" s="3">
         <v>12</v>
@@ -3798,34 +3797,34 @@
         <v>258</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="I17" s="3">
         <v>1601</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -3836,7 +3835,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U17" s="3">
         <v>88</v>
@@ -3885,22 +3884,22 @@
         <v>258</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="3">
         <v>1605</v>
@@ -3909,10 +3908,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -3923,7 +3922,7 @@
         <v>30</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U18" s="3">
         <v>23</v>
@@ -3975,22 +3974,22 @@
         <v>317</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="3">
         <v>22</v>
@@ -3999,10 +3998,10 @@
         <v>8.01</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M19" s="4">
         <v>43969</v>
@@ -4017,7 +4016,7 @@
         <v>30</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U19" s="3">
         <v>70</v>
@@ -4066,34 +4065,34 @@
         <v>317</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20" s="3">
         <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -4116,7 +4115,7 @@
         <v>79</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
@@ -4156,22 +4155,22 @@
         <v>317</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="3">
         <v>19.02</v>
@@ -4180,10 +4179,10 @@
         <v>95</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -4231,22 +4230,22 @@
         <v>317</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="3">
         <v>22.01</v>
@@ -4255,10 +4254,10 @@
         <v>16</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -4306,22 +4305,22 @@
         <v>317</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="3">
         <v>22.01</v>
@@ -4330,10 +4329,10 @@
         <v>4.05</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -4381,22 +4380,22 @@
         <v>317</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="3">
         <v>19.559999999999999</v>
@@ -4405,10 +4404,10 @@
         <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -4456,22 +4455,22 @@
         <v>317</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D25" s="3">
         <v>5</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="3">
         <v>34</v>
@@ -4480,10 +4479,10 @@
         <v>5.07</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -4531,22 +4530,22 @@
         <v>317</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D26" s="3">
         <v>5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I26" s="3">
         <v>22.02</v>
@@ -4555,10 +4554,10 @@
         <v>140</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -4606,22 +4605,22 @@
         <v>317</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" s="3">
         <v>22.01</v>
@@ -4630,10 +4629,10 @@
         <v>4.05</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -4681,22 +4680,22 @@
         <v>317</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="3">
         <v>22.01</v>
@@ -4705,10 +4704,10 @@
         <v>4.05</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -4756,22 +4755,22 @@
         <v>317</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="3">
         <v>22.01</v>
@@ -4780,10 +4779,10 @@
         <v>60</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -4831,25 +4830,25 @@
         <v>508</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D30" s="3">
         <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="3">
         <v>605</v>
@@ -4858,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M30" s="4">
         <v>43928</v>
@@ -4876,7 +4875,7 @@
         <v>20</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T30" s="3">
         <v>0</v>
@@ -4938,37 +4937,37 @@
         <v>508</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -4976,7 +4975,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="S31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T31" s="3">
         <v>0</v>
@@ -5022,37 +5021,37 @@
         <v>508</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D32" s="3">
         <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="3">
         <v>3307</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -5060,7 +5059,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="S32" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -5109,25 +5108,25 @@
         <v>508</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D33" s="3">
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="3">
         <v>213</v>
@@ -5136,10 +5135,10 @@
         <v>22</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -5147,7 +5146,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="S33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
@@ -5196,25 +5195,25 @@
         <v>508</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D34" s="3">
         <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" s="3">
         <v>214</v>
@@ -5223,10 +5222,10 @@
         <v>11</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -5234,7 +5233,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="S34" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T34" s="3">
         <v>0</v>
@@ -5283,25 +5282,25 @@
         <v>508</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D35" s="3">
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" s="3">
         <v>3506</v>
@@ -5310,10 +5309,10 @@
         <v>2</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -5321,7 +5320,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="S35" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U35" s="3">
         <v>2</v>
@@ -5365,22 +5364,22 @@
         <v>1006</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D36" s="3">
         <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36" s="3">
         <v>29</v>
@@ -5389,10 +5388,10 @@
         <v>4</v>
       </c>
       <c r="K36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -5403,7 +5402,7 @@
         <v>30</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U36" s="3">
         <v>89</v>
@@ -5452,22 +5451,22 @@
         <v>1006</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D37" s="3">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I37" s="3">
         <v>79.069999999999993</v>
@@ -5476,10 +5475,10 @@
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -5490,7 +5489,7 @@
         <v>30</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U37" s="3">
         <v>28</v>
@@ -5539,25 +5538,25 @@
         <v>1018</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I38" s="3">
         <v>13.02</v>
@@ -5566,10 +5565,10 @@
         <v>22</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -5577,7 +5576,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="S38" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U38" s="3">
         <v>6</v>
@@ -5620,34 +5619,34 @@
         <v>1020</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="3">
         <v>3</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -5658,7 +5657,7 @@
         <v>30</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U39" s="3">
         <v>32</v>
@@ -5716,22 +5715,22 @@
         <v>1021</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I40" s="3">
         <v>16</v>
@@ -5740,10 +5739,10 @@
         <v>14.05</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -5753,7 +5752,7 @@
         <v>1998</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U40" s="3">
         <v>10</v>
@@ -5811,34 +5810,34 @@
         <v>1021</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41" s="3">
         <v>3</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -5851,7 +5850,7 @@
         <v>20</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U41" s="3">
         <v>96</v>
@@ -5906,22 +5905,22 @@
         <v>1021</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" s="3">
         <v>16.010000000000002</v>
@@ -5930,10 +5929,10 @@
         <v>54.01</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -5946,7 +5945,7 @@
         <v>30</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T42" s="3">
         <v>1000000</v>
@@ -6031,22 +6030,22 @@
         <v>1021</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" s="3">
         <v>3</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I43" s="3">
         <v>73</v>
@@ -6055,10 +6054,10 @@
         <v>49</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -6068,7 +6067,7 @@
         <v>2011</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U43" s="3">
         <v>4</v>
@@ -6126,22 +6125,22 @@
         <v>1021</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D44" s="3">
         <v>3</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I44" s="3">
         <v>27</v>
@@ -6150,10 +6149,10 @@
         <v>22</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4">
@@ -6163,7 +6162,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="S44" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -6239,25 +6238,25 @@
         <v>1025</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" s="3">
         <v>3</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="G45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I45" s="3">
         <v>11.01</v>
@@ -6266,10 +6265,10 @@
         <v>22</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -6284,7 +6283,7 @@
         <v>30</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U45" s="3">
         <v>2</v>
@@ -6339,22 +6338,22 @@
         <v>1025</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D46" s="3">
         <v>3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I46" s="3">
         <v>13</v>
@@ -6363,7 +6362,7 @@
         <v>7</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -6411,31 +6410,31 @@
         <v>1025</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" s="3">
         <v>3</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I47" s="3">
         <v>22</v>
       </c>
       <c r="J47" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -6483,34 +6482,34 @@
         <v>1106</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D48" s="3">
         <v>4</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I48" s="3">
         <v>85</v>
       </c>
       <c r="J48" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="L48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -6567,22 +6566,22 @@
         <v>1106</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D49" s="3">
         <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I49" s="3">
         <v>46</v>
@@ -6591,10 +6590,10 @@
         <v>8.01</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -6651,37 +6650,37 @@
         <v>1106</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D50" s="3">
         <v>4</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="L50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -6738,37 +6737,37 @@
         <v>1106</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="L51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -6813,37 +6812,37 @@
         <v>1106</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D52" s="3">
         <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I52" s="3">
         <v>91</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -6900,25 +6899,25 @@
         <v>1106</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D53" s="3">
         <v>4</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I53" s="3">
         <v>78.09</v>
@@ -6927,10 +6926,10 @@
         <v>21</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4">
@@ -7016,25 +7015,25 @@
         <v>1106</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D54" s="3">
         <v>4</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I54" s="3">
         <v>78</v>
@@ -7043,10 +7042,10 @@
         <v>17</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -7103,37 +7102,37 @@
         <v>1106</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D55" s="3">
         <v>4</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I55" s="3">
         <v>93</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="L55" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -7190,37 +7189,37 @@
         <v>1113</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D56" s="3">
         <v>4</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I56" s="3">
         <v>15.14</v>
       </c>
       <c r="J56" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K56" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="L56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M56" s="4">
         <v>40373</v>
@@ -7230,10 +7229,10 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S56" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U56" s="3">
         <v>24</v>
@@ -7294,37 +7293,37 @@
         <v>1113</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D57" s="3">
         <v>4</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="G57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I57" s="3">
         <v>10</v>
       </c>
       <c r="J57" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="L57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M57" s="4">
         <v>42298</v>
@@ -7336,10 +7335,10 @@
         <v>43912</v>
       </c>
       <c r="R57" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S57" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U57" s="3">
         <v>6</v>
@@ -7403,37 +7402,37 @@
         <v>1113</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D58" s="3">
         <v>4</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I58" s="3">
         <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="L58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M58" s="4">
         <v>42774</v>
@@ -7501,37 +7500,37 @@
         <v>1113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D59" s="3">
         <v>4</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="G59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I59" s="3">
         <v>7</v>
       </c>
       <c r="J59" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="L59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -7539,7 +7538,7 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="S59" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U59" s="3">
         <v>48</v>
@@ -7582,31 +7581,31 @@
         <v>1113</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="3">
         <v>4</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="L60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M60" s="4">
         <v>43488</v>
@@ -7616,10 +7615,10 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S60" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U60" s="3">
         <v>6</v>
@@ -7683,31 +7682,31 @@
         <v>1113</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D61" s="3">
         <v>4</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -7715,7 +7714,7 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="S61" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U61" s="3">
         <v>132</v>
@@ -7758,31 +7757,31 @@
         <v>1113</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D62" s="3">
         <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K62" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="L62" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M62" s="4">
         <v>43264</v>
@@ -7792,10 +7791,10 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U62" s="3">
         <v>89</v>
@@ -7844,25 +7843,25 @@
         <v>1113</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D63" s="3">
         <v>4</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="G63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I63" s="3">
         <v>5</v>
@@ -7871,10 +7870,10 @@
         <v>19</v>
       </c>
       <c r="K63" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -7882,10 +7881,10 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S63" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U63" s="3">
         <v>29</v>
@@ -7934,31 +7933,31 @@
         <v>1113</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D64" s="3">
         <v>4</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="L64" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -7966,10 +7965,10 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S64" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U64" s="3">
         <v>64</v>
@@ -8024,31 +8023,31 @@
         <v>1113</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D65" s="3">
         <v>4</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K65" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="L65" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M65" s="4">
         <v>42753</v>
@@ -8058,10 +8057,10 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S65" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S65" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U65" s="3">
         <v>5</v>
@@ -8110,31 +8109,31 @@
         <v>1113</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" s="3">
         <v>4</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K66" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="L66" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -8142,10 +8141,10 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S66" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U66" s="3">
         <v>157</v>
@@ -8194,31 +8193,31 @@
         <v>1113</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D67" s="3">
         <v>4</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="L67" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -8226,10 +8225,10 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S67" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S67" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U67" s="3">
         <v>164</v>
@@ -8272,31 +8271,31 @@
         <v>1113</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" s="3">
         <v>4</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="G68" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M68" s="4">
         <v>43762</v>
@@ -8306,10 +8305,10 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S68" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U68" s="3">
         <v>3</v>
@@ -8352,28 +8351,28 @@
         <v>1113</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="3">
         <v>4</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M69" s="4">
         <v>43881</v>
@@ -8383,10 +8382,10 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S69" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S69" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U69" s="3">
         <v>51</v>
@@ -8444,31 +8443,31 @@
         <v>1113</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="3">
         <v>4</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="L70" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M70" s="4">
         <v>43194</v>
@@ -8478,10 +8477,10 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S70" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U70" s="3">
         <v>2</v>
@@ -8536,31 +8535,31 @@
         <v>1113</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="3">
         <v>4</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -8568,7 +8567,7 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U71" s="3">
         <v>4</v>
@@ -8620,25 +8619,25 @@
         <v>1113</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="3">
         <v>4</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I72" s="3">
         <v>15</v>
@@ -8647,10 +8646,10 @@
         <v>4</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -8660,10 +8659,10 @@
         <v>41870</v>
       </c>
       <c r="R72" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S72" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U72" s="3">
         <v>103</v>
@@ -8724,25 +8723,25 @@
         <v>1113</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="3">
         <v>4</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="G73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I73" s="3">
         <v>9</v>
@@ -8751,10 +8750,10 @@
         <v>131204</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -8764,10 +8763,10 @@
         <v>43570</v>
       </c>
       <c r="R73" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S73" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="S73" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="U73" s="3">
         <v>37</v>
@@ -8834,25 +8833,25 @@
         <v>1401</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D74" s="3">
         <v>2</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I74" s="3">
         <v>41601</v>
@@ -8861,17 +8860,17 @@
         <v>16</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R74" s="3">
         <v>30</v>
@@ -8929,25 +8928,25 @@
         <v>1401</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75" s="3">
         <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="G75" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I75" s="3">
         <v>40501</v>
@@ -8956,10 +8955,10 @@
         <v>1.02</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -9016,25 +9015,25 @@
         <v>1401</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D76" s="3">
         <v>2</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="G76" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I76" s="3">
         <v>40702</v>
@@ -9043,10 +9042,10 @@
         <v>2</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -9105,22 +9104,22 @@
         <v>1401</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I77" s="3">
         <v>40702</v>
@@ -9129,10 +9128,10 @@
         <v>1.01</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -9189,25 +9188,25 @@
         <v>1401</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D78" s="3">
         <v>2</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="G78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I78" s="3">
         <v>40501</v>
@@ -9216,10 +9215,10 @@
         <v>1.03</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -9279,25 +9278,25 @@
         <v>1418</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D79" s="3">
         <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="G79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I79" s="3">
         <v>801</v>
@@ -9306,10 +9305,10 @@
         <v>25</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -9368,25 +9367,25 @@
         <v>1418</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D80" s="3">
         <v>2</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="G80" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I80" s="3">
         <v>81</v>
@@ -9395,10 +9394,10 @@
         <v>20</v>
       </c>
       <c r="K80" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -9455,25 +9454,25 @@
         <v>1418</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D81" s="3">
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="I81" s="3">
         <v>18.010000000000002</v>
@@ -9482,10 +9481,10 @@
         <v>5</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -9539,47 +9538,47 @@
         <v>1426</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D82" s="3">
         <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I82" s="3">
         <v>61</v>
       </c>
       <c r="J82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R82" s="3">
         <v>30</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U82" s="3">
         <v>14</v>
@@ -9685,22 +9684,22 @@
         <v>1426</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D83" s="3">
         <v>2</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H83" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I83" s="3">
         <v>61.02</v>
@@ -9709,10 +9708,10 @@
         <v>23.08</v>
       </c>
       <c r="K83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L83" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -9823,34 +9822,34 @@
         <v>1426</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D84" s="3">
         <v>2</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I84" s="3">
         <v>61</v>
       </c>
       <c r="J84" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="L84" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -9961,34 +9960,34 @@
         <v>1505</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D85" s="3">
         <v>4</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I85" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="L85" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
@@ -9999,7 +9998,7 @@
         <v>30</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U85" s="3">
         <v>4</v>
@@ -10060,34 +10059,34 @@
         <v>1505</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D86" s="3">
         <v>4</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I86" s="3" t="s">
+      <c r="J86" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="L86" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
@@ -10098,7 +10097,7 @@
         <v>20</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U86" s="3">
         <v>12</v>
@@ -10150,22 +10149,22 @@
         <v>1505</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D87" s="3">
         <v>4</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I87" s="3">
         <v>896</v>
@@ -10174,10 +10173,10 @@
         <v>470</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
@@ -10185,10 +10184,10 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S87" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U87" s="3">
         <v>9</v>
@@ -10246,22 +10245,22 @@
         <v>1505</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D88" s="3">
         <v>4</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I88" s="3">
         <v>847</v>
@@ -10270,10 +10269,10 @@
         <v>11</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -10281,10 +10280,10 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S88" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U88" s="3">
         <v>4</v>
@@ -10342,22 +10341,22 @@
         <v>1505</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D89" s="3">
         <v>4</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I89" s="3">
         <v>882</v>
@@ -10366,10 +10365,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -10377,10 +10376,10 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U89" s="3">
         <v>3</v>
@@ -10438,22 +10437,22 @@
         <v>1505</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D90" s="3">
         <v>4</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I90" s="3">
         <v>842</v>
@@ -10462,10 +10461,10 @@
         <v>6</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -10476,7 +10475,7 @@
         <v>40</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U90" s="3">
         <v>2</v>
@@ -10534,22 +10533,22 @@
         <v>1505</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D91" s="3">
         <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I91" s="3">
         <v>1062</v>
@@ -10558,10 +10557,10 @@
         <v>19</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -10572,7 +10571,7 @@
         <v>40</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U91" s="3">
         <v>2</v>
@@ -10630,34 +10629,34 @@
         <v>1522</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D92" s="3">
         <v>4</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I92" s="3">
         <v>78</v>
       </c>
       <c r="J92" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K92" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="L92" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="M92" s="4">
         <v>43600</v>
@@ -10674,7 +10673,7 @@
         <v>30</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U92" s="3">
         <v>6</v>
@@ -10771,34 +10770,34 @@
         <v>1605</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D93" s="3">
         <v>1</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I93" s="3">
         <v>79</v>
       </c>
       <c r="J93" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K93" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
@@ -10806,7 +10805,7 @@
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="S93" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U93" s="3">
         <v>52</v>
@@ -10858,34 +10857,34 @@
         <v>1605</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D94" s="3">
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I94" s="3">
         <v>168</v>
       </c>
       <c r="J94" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="L94" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
@@ -10893,7 +10892,7 @@
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="S94" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U94" s="3">
         <v>11</v>
@@ -10945,34 +10944,34 @@
         <v>1605</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D95" s="3">
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I95" s="3">
         <v>251</v>
       </c>
       <c r="J95" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="K95" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="L95" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
@@ -10980,7 +10979,7 @@
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="S95" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U95" s="3">
         <v>51</v>
@@ -11032,22 +11031,22 @@
         <v>1605</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D96" s="3">
         <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I96" s="3">
         <v>156</v>
@@ -11056,10 +11055,10 @@
         <v>8</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
@@ -11067,7 +11066,7 @@
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="S96" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U96" s="3">
         <v>2</v>
@@ -11119,22 +11118,22 @@
         <v>1605</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D97" s="3">
         <v>1</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I97" s="3">
         <v>139</v>
@@ -11143,10 +11142,10 @@
         <v>6</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
@@ -11154,7 +11153,7 @@
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="S97" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U97" s="3">
         <v>2</v>
@@ -11206,22 +11205,22 @@
         <v>1609</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D98" s="3">
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I98" s="3">
         <v>6702</v>
@@ -11230,10 +11229,10 @@
         <v>1</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
@@ -11241,7 +11240,7 @@
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="S98" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U98" s="3">
         <v>5</v>
@@ -11296,22 +11295,22 @@
         <v>1609</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D99" s="3">
         <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I99" s="3">
         <v>6900</v>
@@ -11320,10 +11319,10 @@
         <v>10.01</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
@@ -11334,7 +11333,7 @@
         <v>40</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U99" s="3">
         <v>4</v>
@@ -11389,22 +11388,22 @@
         <v>1609</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D100" s="3">
         <v>1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I100" s="3">
         <v>3100.01</v>
@@ -11413,10 +11412,10 @@
         <v>1</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
@@ -11427,7 +11426,7 @@
         <v>40</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U100" s="3">
         <v>2</v>
@@ -11482,22 +11481,22 @@
         <v>1609</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D101" s="3">
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I101" s="3">
         <v>6702</v>
@@ -11506,10 +11505,10 @@
         <v>40</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -11517,10 +11516,10 @@
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U101" s="3">
         <v>4</v>
@@ -11575,22 +11574,22 @@
         <v>1609</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I102" s="3">
         <v>7000</v>
@@ -11599,10 +11598,10 @@
         <v>10</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
@@ -11610,10 +11609,10 @@
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U102" s="3">
         <v>7</v>
@@ -11671,22 +11670,22 @@
         <v>1609</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D103" s="3">
         <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I103" s="3">
         <v>2700</v>
@@ -11695,10 +11694,10 @@
         <v>5</v>
       </c>
       <c r="K103" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="L103" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
@@ -11709,7 +11708,7 @@
         <v>30</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U103" s="3">
         <v>6</v>
@@ -11761,22 +11760,22 @@
         <v>1609</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D104" s="3">
         <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I104" s="3">
         <v>100</v>
@@ -11785,10 +11784,10 @@
         <v>22.03</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
@@ -11799,7 +11798,7 @@
         <v>30</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U104" s="3">
         <v>3</v>
@@ -11851,34 +11850,34 @@
         <v>1609</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D105" s="3">
         <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="K105" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="L105" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -11889,7 +11888,7 @@
         <v>30</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U105" s="3">
         <v>9</v>
@@ -11941,22 +11940,22 @@
         <v>1609</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D106" s="3">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="H106" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I106" s="3">
         <v>3101</v>
@@ -11965,10 +11964,10 @@
         <v>4.01</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -11979,7 +11978,7 @@
         <v>30</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U106" s="3">
         <v>2</v>
@@ -12034,22 +12033,22 @@
         <v>1609</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D107" s="3">
         <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I107" s="3">
         <v>6300</v>
@@ -12058,10 +12057,10 @@
         <v>4</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
@@ -12072,7 +12071,7 @@
         <v>30</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U107" s="3">
         <v>2</v>
@@ -12127,22 +12126,22 @@
         <v>1609</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I108" s="3">
         <v>6200</v>
@@ -12151,10 +12150,10 @@
         <v>1</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M108" s="4">
         <v>43516</v>
@@ -12173,7 +12172,7 @@
         <v>30</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T108" s="3">
         <v>45000</v>
@@ -12237,34 +12236,34 @@
         <v>1609</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D109" s="3">
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I109" s="3">
         <v>6300</v>
       </c>
       <c r="J109" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K109" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="L109" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -12275,7 +12274,7 @@
         <v>30</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T109" s="3">
         <v>540000</v>
@@ -12357,22 +12356,22 @@
         <v>1609</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D110" s="3">
         <v>1</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I110" s="3">
         <v>6300</v>
@@ -12381,10 +12380,10 @@
         <v>33</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M110" s="4">
         <v>42969</v>
@@ -12403,7 +12402,7 @@
         <v>30</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U110" s="3">
         <v>1</v>
@@ -12461,34 +12460,34 @@
         <v>1609</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D111" s="3">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I111" s="3">
         <v>3000</v>
       </c>
       <c r="J111" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K111" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="K111" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="L111" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -12499,7 +12498,7 @@
         <v>30</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T111" s="3">
         <v>90000</v>
@@ -12557,34 +12556,34 @@
         <v>1609</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I112" s="3">
         <v>100</v>
       </c>
       <c r="J112" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K112" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="K112" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="L112" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -12595,7 +12594,7 @@
         <v>30</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T112" s="3">
         <v>90000</v>
@@ -12653,34 +12652,34 @@
         <v>1609</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D113" s="3">
         <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I113" s="3">
         <v>3000</v>
       </c>
       <c r="J113" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K113" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="K113" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="L113" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -12691,7 +12690,7 @@
         <v>30</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U113" s="3">
         <v>11</v>
@@ -12743,22 +12742,22 @@
         <v>1609</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D114" s="3">
         <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I114" s="3">
         <v>2400</v>
@@ -12767,10 +12766,10 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -12781,7 +12780,7 @@
         <v>30</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U114" s="3">
         <v>2</v>
@@ -12836,22 +12835,22 @@
         <v>1609</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D115" s="3">
         <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I115" s="3">
         <v>3100</v>
@@ -12860,10 +12859,10 @@
         <v>4</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
@@ -12874,7 +12873,7 @@
         <v>30</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U115" s="3">
         <v>4</v>
@@ -12926,22 +12925,22 @@
         <v>1609</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D116" s="3">
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I116" s="3">
         <v>2800</v>
@@ -12950,10 +12949,10 @@
         <v>11</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4">
@@ -12966,7 +12965,7 @@
         <v>30</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U116" s="3">
         <v>1</v>
@@ -13009,34 +13008,34 @@
         <v>1908</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="D117" s="3">
         <v>1</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I117" s="3">
         <v>6</v>
       </c>
       <c r="J117" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K117" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="K117" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="L117" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -13096,22 +13095,22 @@
         <v>1908</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="D118" s="3">
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I118" s="3">
         <v>21</v>
@@ -13120,10 +13119,10 @@
         <v>14.02</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
@@ -13186,31 +13185,31 @@
         <v>111</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D119" s="3">
         <v>6</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="G119" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K119" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="L119" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
@@ -13273,25 +13272,25 @@
         <v>111</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D120" s="3">
         <v>6</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I120" s="3">
         <v>775</v>
@@ -13300,10 +13299,10 @@
         <v>8.01</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
@@ -13316,7 +13315,7 @@
         <v>30</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U120" s="3">
         <v>1</v>
@@ -13371,25 +13370,25 @@
         <v>111</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D121" s="3">
         <v>6</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I121" s="3">
         <v>716</v>
@@ -13398,10 +13397,10 @@
         <v>2</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
@@ -13414,7 +13413,7 @@
         <v>30</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U121" s="3">
         <v>1</v>
@@ -13469,25 +13468,25 @@
         <v>111</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D122" s="3">
         <v>6</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I122" s="3">
         <v>715</v>
@@ -13496,10 +13495,10 @@
         <v>2</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
@@ -13512,7 +13511,7 @@
         <v>30</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U122" s="3">
         <v>1</v>
@@ -13567,25 +13566,25 @@
         <v>111</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D123" s="3">
         <v>6</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I123" s="3">
         <v>615</v>
@@ -13594,10 +13593,10 @@
         <v>9</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
@@ -13610,7 +13609,7 @@
         <v>30</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U123" s="3">
         <v>1</v>
@@ -13665,25 +13664,25 @@
         <v>111</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D124" s="3">
         <v>6</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I124" s="3">
         <v>606</v>
@@ -13692,10 +13691,10 @@
         <v>5.01</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
@@ -13708,7 +13707,7 @@
         <v>30</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U124" s="3">
         <v>1</v>
@@ -13763,50 +13762,50 @@
         <v>111</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D125" s="3">
         <v>6</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="G125" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I125" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I125" s="3" t="s">
+      <c r="J125" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="K125" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="L125" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R125" s="3">
         <v>30</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U125" s="3">
         <v>7</v>
@@ -13861,22 +13860,22 @@
         <v>111</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D126" s="3">
         <v>6</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I126" s="3">
         <v>457</v>
@@ -13885,10 +13884,10 @@
         <v>3.03</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
@@ -13956,22 +13955,22 @@
         <v>111</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D127" s="3">
         <v>6</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I127" s="3">
         <v>457</v>
@@ -13980,10 +13979,10 @@
         <v>3.03</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
@@ -14051,31 +14050,31 @@
         <v>111</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D128" s="3">
         <v>6</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F128" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="L128" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M128" s="4"/>
       <c r="N128" s="4">
@@ -14087,7 +14086,7 @@
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
       <c r="S128" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U128" s="3">
         <v>100</v>
@@ -14160,28 +14159,28 @@
         <v>111</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D129" s="3">
         <v>6</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
@@ -14238,22 +14237,22 @@
         <v>111</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D130" s="3">
         <v>6</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I130" s="3">
         <v>457</v>
@@ -14262,10 +14261,10 @@
         <v>3.02</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M130" s="4"/>
       <c r="N130" s="4">
@@ -14324,22 +14323,22 @@
         <v>111</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D131" s="3">
         <v>6</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I131" s="3">
         <v>948</v>
@@ -14348,10 +14347,10 @@
         <v>25.03</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
@@ -14408,37 +14407,37 @@
         <v>111</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="D132" s="3">
         <v>6</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I132" s="3">
         <v>768</v>
       </c>
       <c r="J132" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="K132" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="K132" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="L132" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
@@ -14446,7 +14445,7 @@
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
       <c r="S132" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U132" s="3">
         <v>2</v>
@@ -14501,22 +14500,22 @@
         <v>210</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D133" s="3">
         <v>1</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I133" s="3">
         <v>905</v>
@@ -14525,10 +14524,10 @@
         <v>1.01</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
@@ -14587,34 +14586,34 @@
         <v>210</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H134" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G134" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H134" s="3" t="s">
+      <c r="I134" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="I134" s="3" t="s">
+      <c r="J134" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="K134" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="K134" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="L134" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -14673,25 +14672,25 @@
         <v>210</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D135" s="3">
         <v>1</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I135" s="3">
         <v>410</v>
@@ -14700,10 +14699,10 @@
         <v>9</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
@@ -14713,7 +14712,7 @@
         <v>2003</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U135" s="3">
         <v>4</v>
@@ -14765,25 +14764,25 @@
         <v>210</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D136" s="8">
         <v>1</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I136" s="8">
         <v>919</v>
@@ -14792,10 +14791,10 @@
         <v>15</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
@@ -14805,7 +14804,7 @@
         <v>2006</v>
       </c>
       <c r="S136" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U136" s="8">
         <v>3</v>
@@ -14857,37 +14856,37 @@
         <v>210</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D137" s="3">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="G137" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H137" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G137" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H137" s="3" t="s">
+      <c r="I137" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="J137" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="K137" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="K137" s="3" t="s">
-        <v>464</v>
-      </c>
       <c r="L137" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
@@ -14900,7 +14899,7 @@
         <v>30</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U137" s="3">
         <v>22</v>
@@ -14976,25 +14975,25 @@
         <v>210</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D138" s="3">
         <v>1</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I138" s="3">
         <v>616</v>
@@ -15003,10 +15002,10 @@
         <v>8</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
@@ -15065,25 +15064,25 @@
         <v>210</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D139" s="3">
         <v>1</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I139" s="3">
         <v>918</v>
@@ -15092,10 +15091,10 @@
         <v>16</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
@@ -15154,22 +15153,22 @@
         <v>224</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D140" s="3">
         <v>1</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I140" s="3">
         <v>16.010000000000002</v>
@@ -15178,10 +15177,10 @@
         <v>1.01</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
@@ -15223,34 +15222,34 @@
         <v>224</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D141" s="3">
         <v>1</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I141" s="3">
         <v>1204</v>
       </c>
       <c r="J141" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="K141" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="K141" s="3" t="s">
-        <v>475</v>
-      </c>
       <c r="L141" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
@@ -15301,34 +15300,34 @@
         <v>224</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I142" s="3">
         <v>1204</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
@@ -15373,34 +15372,34 @@
         <v>310</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D143" s="3">
         <v>5</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I143" s="3">
         <v>46</v>
       </c>
       <c r="J143" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="K143" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="K143" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="L143" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M143" s="4"/>
       <c r="N143" s="4">
@@ -15410,7 +15409,7 @@
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="S143" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U143" s="3">
         <v>53</v>
@@ -15477,22 +15476,22 @@
         <v>310</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D144" s="3">
         <v>5</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I144" s="3">
         <v>116</v>
@@ -15501,10 +15500,10 @@
         <v>23</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
@@ -15558,34 +15557,34 @@
         <v>310</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D145" s="3">
         <v>5</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="J145" s="3">
         <v>4.03</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
@@ -15598,7 +15597,7 @@
         <v>30</v>
       </c>
       <c r="S145" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U145" s="3">
         <v>75</v>
@@ -15656,22 +15655,22 @@
         <v>310</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D146" s="3">
         <v>5</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I146" s="3">
         <v>125</v>
@@ -15680,10 +15679,10 @@
         <v>14</v>
       </c>
       <c r="K146" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="L146" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
@@ -15691,7 +15690,7 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="S146" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U146" s="3">
         <v>65</v>
@@ -15740,22 +15739,22 @@
         <v>1218</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="D147" s="3">
         <v>3</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I147" s="3">
         <v>13</v>
@@ -15764,10 +15763,10 @@
         <v>4</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
@@ -15803,22 +15802,22 @@
         <v>1340</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D148" s="3">
         <v>4</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I148" s="3">
         <v>23</v>
@@ -15827,10 +15826,10 @@
         <v>2</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
@@ -15890,34 +15889,34 @@
         <v>1340</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D149" s="3">
         <v>4</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I149" s="3">
         <v>3</v>
       </c>
       <c r="J149" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="K149" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="K149" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="L149" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M149" s="4"/>
       <c r="N149" s="4">
@@ -15976,22 +15975,22 @@
         <v>1340</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D150" s="3">
         <v>4</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I150" s="3">
         <v>29</v>
@@ -16000,10 +15999,10 @@
         <v>5.01</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M150" s="4"/>
       <c r="N150" s="4">
@@ -16062,22 +16061,22 @@
         <v>1340</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D151" s="3">
         <v>4</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I151" s="3">
         <v>75.010000000000005</v>
@@ -16086,10 +16085,10 @@
         <v>86</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
@@ -16151,34 +16150,34 @@
         <v>1340</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D152" s="3">
         <v>4</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="H152" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I152" s="3" t="s">
+      <c r="J152" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="K152" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="K152" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="L152" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
@@ -16240,25 +16239,25 @@
         <v>1402</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D153" s="3">
         <v>2</v>
       </c>
       <c r="E153" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F153" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="G153" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I153" s="3">
         <v>41601</v>
@@ -16267,17 +16266,17 @@
         <v>16</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
       <c r="Q153" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R153" s="3">
         <v>30</v>
@@ -16335,25 +16334,25 @@
         <v>1402</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D154" s="3">
         <v>2</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="G154" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I154" s="3">
         <v>40501</v>
@@ -16362,10 +16361,10 @@
         <v>1.02</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
@@ -16422,25 +16421,25 @@
         <v>1402</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D155" s="3">
         <v>2</v>
       </c>
       <c r="E155" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="G155" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I155" s="3">
         <v>40702</v>
@@ -16449,10 +16448,10 @@
         <v>2</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
@@ -16511,22 +16510,22 @@
         <v>1402</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D156" s="3">
         <v>2</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I156" s="3">
         <v>40702</v>
@@ -16535,10 +16534,10 @@
         <v>1.01</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
@@ -16595,25 +16594,25 @@
         <v>1402</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D157" s="3">
         <v>2</v>
       </c>
       <c r="E157" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="G157" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I157" s="3">
         <v>40501</v>
@@ -16622,10 +16621,10 @@
         <v>1.03</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
@@ -16687,22 +16686,22 @@
         <v>1512</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D158" s="3">
         <v>4</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I158" s="3">
         <v>1837</v>
@@ -16711,10 +16710,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
@@ -16725,7 +16724,7 @@
         <v>30</v>
       </c>
       <c r="S158" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U158" s="3">
         <v>70</v>
@@ -16801,22 +16800,22 @@
         <v>1512</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D159" s="3">
         <v>4</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I159" s="3">
         <v>1837.01</v>
@@ -16825,10 +16824,10 @@
         <v>8.07</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
@@ -16836,7 +16835,7 @@
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
       <c r="S159" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U159" s="3">
         <v>48</v>

--- a/data/address errors.xlsx
+++ b/data/address errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinabeshai/School/Junior/Fall/COS333i/fair-share-housing-5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA83A23-EF1B-DA4A-823E-4F4DC6FCCED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDC925-7060-B54E-9BAF-DCC51F28271A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27480" windowHeight="16140" xr2:uid="{129652EC-9F8C-3B42-82FF-3C73F84312CD}"/>
   </bookViews>
@@ -2017,10 +2017,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD3CD4-8082-984A-BCC5-8BEEC687BD02}">
   <dimension ref="A1:AY159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2188,9 +2188,6 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1426</v>
-      </c>
       <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
@@ -2334,9 +2331,6 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1426</v>
-      </c>
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
